--- a/lang values.xlsx
+++ b/lang values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>key</t>
   </si>
@@ -52,6 +52,45 @@
   </si>
   <si>
     <t>Регистрация</t>
+  </si>
+  <si>
+    <t>system.common.streetName</t>
+  </si>
+  <si>
+    <t>Street name</t>
+  </si>
+  <si>
+    <t>Улица/блок</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>system.common.Neighborhood</t>
+  </si>
+  <si>
+    <t>Neighborhood</t>
+  </si>
+  <si>
+    <t>Квартал</t>
+  </si>
+  <si>
+    <t>Микрорайон</t>
+  </si>
+  <si>
+    <t>system.common.City</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Град</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>system.common.unrequired</t>
   </si>
 </sst>
 </file>
@@ -372,16 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F4"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,6 +466,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lang values.xlsx
+++ b/lang values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>key</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>system.common.unrequired</t>
+  </si>
+  <si>
+    <t>system.common.edit</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +516,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lang values.xlsx
+++ b/lang values.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lang values.xlsx
+++ b/lang values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>key</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>system.common.edit</t>
+  </si>
+  <si>
+    <t>system.forum.category.engine</t>
+  </si>
+  <si>
+    <t>system.forum.category.all</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +527,16 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lang values.xlsx
+++ b/lang values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="267">
   <si>
     <t>key</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Микрорайон</t>
   </si>
   <si>
-    <t>system.common.City</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -100,6 +97,729 @@
   </si>
   <si>
     <t>system.forum.category.all</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>all categories</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>system.main-nav.profile</t>
+  </si>
+  <si>
+    <t>system.main-nav.garage</t>
+  </si>
+  <si>
+    <t>system.main-nav.forum</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>system.main-nav.login</t>
+  </si>
+  <si>
+    <t>log in</t>
+  </si>
+  <si>
+    <t>system.main-nav.logout</t>
+  </si>
+  <si>
+    <t>log out</t>
+  </si>
+  <si>
+    <t>system.left.aside.investment</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>system.left.aside.investmentname</t>
+  </si>
+  <si>
+    <t>item/article</t>
+  </si>
+  <si>
+    <t>system.common.price</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>system.common.serialnumber</t>
+  </si>
+  <si>
+    <t>part number</t>
+  </si>
+  <si>
+    <t>system.common.partname</t>
+  </si>
+  <si>
+    <t>system.common.quantity</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>system.common.manufacturername</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>system.car.mountedon.km</t>
+  </si>
+  <si>
+    <t>system.car.mountedon.mi</t>
+  </si>
+  <si>
+    <t>mounted on (KM)</t>
+  </si>
+  <si>
+    <t>mounted on (MI)</t>
+  </si>
+  <si>
+    <t>system.left.aside.newpart</t>
+  </si>
+  <si>
+    <t>new part</t>
+  </si>
+  <si>
+    <t>system.left.aside.carrunningdistance</t>
+  </si>
+  <si>
+    <t>car running distance</t>
+  </si>
+  <si>
+    <t>system.common.serviceby</t>
+  </si>
+  <si>
+    <t>serviced by</t>
+  </si>
+  <si>
+    <t>system.common.add</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>system.right.aside.carservices</t>
+  </si>
+  <si>
+    <t>car services</t>
+  </si>
+  <si>
+    <t>repaired parts</t>
+  </si>
+  <si>
+    <t>system.common.rating</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>system.common.manufacturers</t>
+  </si>
+  <si>
+    <t>manufacturers</t>
+  </si>
+  <si>
+    <t>system.common.cars</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>system.common.remove</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>system.car.model</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>system.car.make</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>system.engine.fueltype</t>
+  </si>
+  <si>
+    <t>fuel type</t>
+  </si>
+  <si>
+    <t>system.common.numberofservices</t>
+  </si>
+  <si>
+    <t>number of services</t>
+  </si>
+  <si>
+    <t>system.common.numberofinvestments</t>
+  </si>
+  <si>
+    <t>number of investments</t>
+  </si>
+  <si>
+    <t>system.common.totalspent</t>
+  </si>
+  <si>
+    <t>total spent</t>
+  </si>
+  <si>
+    <t>system.user.firstname</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>system.user.lastname</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>system.common.city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>system.common.country</t>
+  </si>
+  <si>
+    <t>system.common.image</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>system.common.save</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>system.common.backtoprofile</t>
+  </si>
+  <si>
+    <t>back to profile</t>
+  </si>
+  <si>
+    <t>system.car.vin</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>system.common.firstregistration</t>
+  </si>
+  <si>
+    <t>first registration</t>
+  </si>
+  <si>
+    <t>system.engine.petrol</t>
+  </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>system.engine.petrollpg</t>
+  </si>
+  <si>
+    <t>petrol-lpg</t>
+  </si>
+  <si>
+    <t>system.engine.electric</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>system.engine.other</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>petrol-gnv</t>
+  </si>
+  <si>
+    <t>system.engine.petrolgnv</t>
+  </si>
+  <si>
+    <t>system.engine.diesel</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>system.engine.hybrid</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>system.engine.enginesize</t>
+  </si>
+  <si>
+    <t>engine size</t>
+  </si>
+  <si>
+    <t>system.engine.power.kw</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>system.engine.power.hp</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>system.gearbox.manual</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>system.gearbox.automatic</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>system.gearbox.semiautomatic</t>
+  </si>
+  <si>
+    <t>semiautomatic</t>
+  </si>
+  <si>
+    <t>system.gearbox.numberofgears</t>
+  </si>
+  <si>
+    <t>number of gears</t>
+  </si>
+  <si>
+    <t>system.common.create</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>system.common.selecetacar</t>
+  </si>
+  <si>
+    <t>select a car</t>
+  </si>
+  <si>
+    <t>system.common.select</t>
+  </si>
+  <si>
+    <t>system.message.emptycar</t>
+  </si>
+  <si>
+    <t>There are no parts and costs/investments on this car!</t>
+  </si>
+  <si>
+    <t>system.car.nickname</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>system.car.enfgine</t>
+  </si>
+  <si>
+    <t>system.car.gearbox</t>
+  </si>
+  <si>
+    <t>gearbox</t>
+  </si>
+  <si>
+    <t>spend on car</t>
+  </si>
+  <si>
+    <t>system.car.spendoncar</t>
+  </si>
+  <si>
+    <t>system.car.spendonparts</t>
+  </si>
+  <si>
+    <t>spend on parts</t>
+  </si>
+  <si>
+    <t>system.car.partsquantity</t>
+  </si>
+  <si>
+    <t>system.car.spendoninvestments</t>
+  </si>
+  <si>
+    <t>spend on investmenr</t>
+  </si>
+  <si>
+    <t>parts quantity</t>
+  </si>
+  <si>
+    <t>system.car.investmentsquantity</t>
+  </si>
+  <si>
+    <t>investments quantity</t>
+  </si>
+  <si>
+    <t>system.forum.title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>system.forum.content</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>system.common.category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>system.forum.tags</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>system.common.filter</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>system.common.createdon</t>
+  </si>
+  <si>
+    <t>created on</t>
+  </si>
+  <si>
+    <t>system.common.modifiedon</t>
+  </si>
+  <si>
+    <t>modified on</t>
+  </si>
+  <si>
+    <t>system.forum.read</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>system.forum.comment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>system.forum.category.accessories</t>
+  </si>
+  <si>
+    <t>accessories</t>
+  </si>
+  <si>
+    <t>system.forum.category.performancetunning</t>
+  </si>
+  <si>
+    <t>performance and tuning</t>
+  </si>
+  <si>
+    <t>system.forum.category.cosmetics</t>
+  </si>
+  <si>
+    <t>cosmetics</t>
+  </si>
+  <si>
+    <t>system.forum.category.maintenancerepairs</t>
+  </si>
+  <si>
+    <t>maintenance and repairs</t>
+  </si>
+  <si>
+    <t>system.forum.category.tyres and rims</t>
+  </si>
+  <si>
+    <t>tyres and rims</t>
+  </si>
+  <si>
+    <t>system.forum.category.common</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>редактирай</t>
+  </si>
+  <si>
+    <t>двигател</t>
+  </si>
+  <si>
+    <t>всички</t>
+  </si>
+  <si>
+    <t>профил</t>
+  </si>
+  <si>
+    <t>гараж</t>
+  </si>
+  <si>
+    <t>форум</t>
+  </si>
+  <si>
+    <t>влез</t>
+  </si>
+  <si>
+    <t>излез</t>
+  </si>
+  <si>
+    <t>инвестиция</t>
+  </si>
+  <si>
+    <t>избери МПС</t>
+  </si>
+  <si>
+    <t>инвестиция/такса/услуга</t>
+  </si>
+  <si>
+    <t>цена</t>
+  </si>
+  <si>
+    <t>парт номер</t>
+  </si>
+  <si>
+    <t>количество</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>име</t>
+  </si>
+  <si>
+    <t>производител</t>
+  </si>
+  <si>
+    <t>монтиран на (КМ)</t>
+  </si>
+  <si>
+    <t>монтиран на(МИЛИ)</t>
+  </si>
+  <si>
+    <t>нова част</t>
+  </si>
+  <si>
+    <t>пробег</t>
+  </si>
+  <si>
+    <t>обслужен от</t>
+  </si>
+  <si>
+    <t>добави</t>
+  </si>
+  <si>
+    <t>сервиз/дилър</t>
+  </si>
+  <si>
+    <t>system.common.repairedparts</t>
+  </si>
+  <si>
+    <t>сменени/обслужени части</t>
+  </si>
+  <si>
+    <t>рейтинг</t>
+  </si>
+  <si>
+    <t>производители</t>
+  </si>
+  <si>
+    <t>редактирй</t>
+  </si>
+  <si>
+    <t>автомобили</t>
+  </si>
+  <si>
+    <t>премахни</t>
+  </si>
+  <si>
+    <t>модел</t>
+  </si>
+  <si>
+    <t>марка</t>
+  </si>
+  <si>
+    <t>горивна система</t>
+  </si>
+  <si>
+    <t>брой обслужвания</t>
+  </si>
+  <si>
+    <t>брой инвестиции</t>
+  </si>
+  <si>
+    <t>общо изхарчени</t>
+  </si>
+  <si>
+    <t>фамилия</t>
+  </si>
+  <si>
+    <t>държава</t>
+  </si>
+  <si>
+    <t>снимка</t>
+  </si>
+  <si>
+    <t>запиши</t>
+  </si>
+  <si>
+    <t>обратно в профила</t>
+  </si>
+  <si>
+    <t>номер на рама</t>
+  </si>
+  <si>
+    <t>първа регистрация</t>
+  </si>
+  <si>
+    <t>бензин</t>
+  </si>
+  <si>
+    <t>бензин/газ</t>
+  </si>
+  <si>
+    <t>електрически</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>метан</t>
+  </si>
+  <si>
+    <t>дизел</t>
+  </si>
+  <si>
+    <t>хибрид</t>
+  </si>
+  <si>
+    <t>обем двигател</t>
+  </si>
+  <si>
+    <t>киловати (КВ)</t>
+  </si>
+  <si>
+    <t>конски сили (К.С.)</t>
+  </si>
+  <si>
+    <t>ръчна</t>
+  </si>
+  <si>
+    <t>автоматик</t>
+  </si>
+  <si>
+    <t>полу-автоматик</t>
+  </si>
+  <si>
+    <t>брой скорости</t>
+  </si>
+  <si>
+    <t>създай</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>избери</t>
+  </si>
+  <si>
+    <t>Автомобила няма сменени/обслужени части и добавени инвестиции.</t>
+  </si>
+  <si>
+    <t>рег. Номер</t>
+  </si>
+  <si>
+    <t>скоростна кутия</t>
+  </si>
+  <si>
+    <t>изхарчени по МПС</t>
+  </si>
+  <si>
+    <t>изхарчени по части</t>
+  </si>
+  <si>
+    <t>брой части</t>
+  </si>
+  <si>
+    <t>изхарчени за инвестиции</t>
+  </si>
+  <si>
+    <t>заглавие</t>
+  </si>
+  <si>
+    <t>съдържание</t>
+  </si>
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>тагове</t>
+  </si>
+  <si>
+    <t>филтрирай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">създадено на </t>
+  </si>
+  <si>
+    <t>редактирано на</t>
+  </si>
+  <si>
+    <t>прочети</t>
+  </si>
+  <si>
+    <t>коментирай</t>
+  </si>
+  <si>
+    <t>аксесоари</t>
+  </si>
+  <si>
+    <t>мощност и подобрения</t>
+  </si>
+  <si>
+    <t>козметика</t>
+  </si>
+  <si>
+    <t>поддръжка и ремонт</t>
+  </si>
+  <si>
+    <t>гуми и джанти</t>
+  </si>
+  <si>
+    <t>общи</t>
   </si>
 </sst>
 </file>
@@ -115,12 +835,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,10 +873,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,124 +1164,1043 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>